--- a/_Out/NFDataCfg/Excel/Comm/IObject.xlsx
+++ b/_Out/NFDataCfg/Excel/Comm/IObject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23360"/>
+    <workbookView windowWidth="28800" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
   <si>
     <t>Type</t>
@@ -84,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -111,9 +114,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,6 +126,20 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,29 +152,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -171,6 +182,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -179,6 +228,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -187,76 +250,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,187 +286,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,6 +592,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,31 +644,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -667,6 +670,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -675,168 +693,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -862,6 +865,9 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -878,62 +884,59 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -1271,24 +1274,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1307,7 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1313,114 +1316,126 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>10</v>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:9">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9">
+    <row r="3" s="2" customFormat="1" spans="1:10">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>1</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="10">
         <v>1</v>
       </c>
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:9">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8">
+    <row r="4" s="2" customFormat="1" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
         <v>1</v>
       </c>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:9">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
+    <row r="5" s="2" customFormat="1" spans="1:10">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
         <v>0</v>
       </c>
       <c r="G5" s="3">
@@ -1429,27 +1444,30 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:9">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
+    <row r="6" s="2" customFormat="1" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
         <v>0</v>
       </c>
       <c r="G6" s="3">
@@ -1458,13 +1476,16 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="10">
         <v>1</v>
       </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:9">
-      <c r="A7" s="10" t="s">
-        <v>17</v>
+    <row r="7" s="3" customFormat="1" spans="1:10">
+      <c r="A7" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -1490,10 +1511,13 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:9">
-      <c r="A8" s="10" t="s">
-        <v>18</v>
+    <row r="8" s="3" customFormat="1" spans="1:10">
+      <c r="A8" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -1519,10 +1543,13 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:9">
-      <c r="A9" s="10" t="s">
-        <v>19</v>
+    <row r="9" s="3" customFormat="1" spans="1:10">
+      <c r="A9" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -1548,22 +1575,26 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:9">
-      <c r="A10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="I10" s="12"/>
+    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 I1 A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2 B3 C3 F3 G3 H3 I3 H4 H5 F6 G6 H6 I6 F4:F5 F10:F1048576 G4:G5 H7:H9 I4:I5 I7:I9 I10:I1048576 B7:G9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 I1 J1 A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2 B3 C3 F3 G3 H3 I3 J3 H4 H5 F6 G6 H6 I6 J6 F4:F5 F10:F1048576 G4:G5 H7:H9 I4:I5 I7:I9 I10:I1048576 J4:J5 J7:J9 J10:J1048576 B7:G9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/Comm/IObject.xlsx
+++ b/_Out/NFDataCfg/Excel/Comm/IObject.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uowou\Desktop\NFGameDemo\NoahFrame\_Out\NFDataCfg\Excel\Comm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E71D43-D136-4A34-8852-9555DE02CB97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12510"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="37636" windowHeight="20416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -80,19 +86,22 @@
   </si>
   <si>
     <t>Desc</t>
+  </si>
+  <si>
+    <t>MasterID</t>
+  </si>
+  <si>
+    <t>CampID</t>
+  </si>
+  <si>
+    <t>object</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -113,159 +122,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,194 +142,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -595,251 +267,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -887,61 +317,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1270,28 +656,27 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="1" max="2" width="10.46484375" customWidth="1"/>
+    <col min="3" max="4" width="8.46484375" customWidth="1"/>
+    <col min="5" max="5" width="9.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1322,8 +707,14 @@
       <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:10">
+    <row r="2" spans="1:12" s="2" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +745,14 @@
       <c r="J2" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:10">
+    <row r="3" spans="1:12" s="2" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
@@ -1386,8 +783,14 @@
       <c r="J3" s="10">
         <v>1</v>
       </c>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:10">
+    <row r="4" spans="1:12" s="2" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1418,8 +821,14 @@
       <c r="J4" s="10">
         <v>1</v>
       </c>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:10">
+    <row r="5" spans="1:12" s="2" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -1450,8 +859,14 @@
       <c r="J5" s="10">
         <v>0</v>
       </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:10">
+    <row r="6" spans="1:12" s="2" customFormat="1">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1482,8 +897,14 @@
       <c r="J6" s="3">
         <v>0</v>
       </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:10">
+    <row r="7" spans="1:12" s="3" customFormat="1">
       <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
@@ -1514,8 +935,14 @@
       <c r="J7" s="3">
         <v>0</v>
       </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:10">
+    <row r="8" spans="1:12" s="3" customFormat="1">
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
@@ -1546,8 +973,14 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:10">
+    <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
@@ -1578,8 +1011,14 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:10">
+    <row r="10" spans="1:12" s="4" customFormat="1">
       <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
@@ -1590,15 +1029,17 @@
       <c r="F10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 I1 J1 A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2 B3 C3 F3 G3 H3 I3 J3 H4 H5 F6 G6 H6 I6 J6 F4:F5 F10:F1048576 G4:G5 H7:H9 I4:I5 I7:I9 I10:I1048576 J4:J5 J7:J9 J10:J1048576 B7:G9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 I1:L1 A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2 B3:C3 F3:L6 F10:F1048576 I10:L1048576 B7:L9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/NFDataCfg/Excel/Comm/IObject.xlsx
+++ b/_Out/NFDataCfg/Excel/Comm/IObject.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uowou\Desktop\NFGameDemo\NoahFrame\_Out\NFDataCfg\Excel\Comm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uowou\Desktop\NFGameDemo\_Out\NFDataCfg\Excel\Comm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E71D43-D136-4A34-8852-9555DE02CB97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E02B0F6-0B58-4E8C-947F-96679787D221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="37636" windowHeight="20416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>object</t>
+  </si>
+  <si>
+    <t>Disable</t>
   </si>
 </sst>
 </file>
@@ -662,11 +665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -676,7 +679,7 @@
     <col min="5" max="5" width="9.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -713,8 +716,11 @@
       <c r="L1" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="M1" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1">
+    <row r="2" spans="1:13" s="2" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -751,8 +757,11 @@
       <c r="L2" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="M2" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1">
+    <row r="3" spans="1:13" s="2" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
@@ -789,8 +798,11 @@
       <c r="L3" s="10">
         <v>1</v>
       </c>
+      <c r="M3" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1">
+    <row r="4" spans="1:13" s="2" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -827,8 +839,11 @@
       <c r="L4" s="10">
         <v>1</v>
       </c>
+      <c r="M4" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1">
+    <row r="5" spans="1:13" s="2" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -865,8 +880,11 @@
       <c r="L5" s="10">
         <v>0</v>
       </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1">
+    <row r="6" spans="1:13" s="2" customFormat="1">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -903,8 +921,11 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1">
+    <row r="7" spans="1:13" s="3" customFormat="1">
       <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
@@ -941,8 +962,11 @@
       <c r="L7" s="3">
         <v>0</v>
       </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1">
+    <row r="8" spans="1:13" s="3" customFormat="1">
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
@@ -979,8 +1003,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1">
+    <row r="9" spans="1:13" s="3" customFormat="1">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
@@ -1017,8 +1044,11 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1">
+    <row r="10" spans="1:13" s="4" customFormat="1">
       <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
@@ -1031,11 +1061,12 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 I1:L1 A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2 B3:C3 F3:L6 F10:F1048576 I10:L1048576 B7:L9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 I1:M1 A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2 B3:C3 F3:M6 F10:F1048576 I10:M1048576 B7:M9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/Comm/IObject.xlsx
+++ b/_Out/NFDataCfg/Excel/Comm/IObject.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uowou\Desktop\NFGameDemo\_Out\NFDataCfg\Excel\Comm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E02B0F6-0B58-4E8C-947F-96679787D221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -46,12 +40,24 @@
     <t>MoveTo</t>
   </si>
   <si>
+    <t>GMMoveTo</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>State</t>
   </si>
   <si>
+    <t>CampID</t>
+  </si>
+  <si>
+    <t>MasterID</t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>vector3</t>
   </si>
   <si>
+    <t>object</t>
+  </si>
+  <si>
     <t>Public</t>
   </si>
   <si>
@@ -86,25 +95,19 @@
   </si>
   <si>
     <t>Desc</t>
-  </si>
-  <si>
-    <t>MasterID</t>
-  </si>
-  <si>
-    <t>CampID</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>Disable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -125,8 +128,159 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +299,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -270,9 +610,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -320,17 +902,61 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -659,27 +1285,28 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="10.46484375" customWidth="1"/>
-    <col min="3" max="4" width="8.46484375" customWidth="1"/>
-    <col min="5" max="5" width="9.46484375" customWidth="1"/>
+    <col min="1" max="2" width="10.4666666666667" customWidth="1"/>
+    <col min="3" max="4" width="8.46666666666667" customWidth="1"/>
+    <col min="5" max="5" width="9.46666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -704,373 +1331,400 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:14">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:14">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:14">
+      <c r="A4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10">
+        <v>1</v>
+      </c>
+      <c r="N4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:14">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:14">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:14">
+      <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:14">
+      <c r="A8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:14">
+      <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1">
-      <c r="A3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10">
-        <v>1</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1</v>
-      </c>
-      <c r="L3" s="10">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1">
-      <c r="A4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>1</v>
-      </c>
-      <c r="J4" s="10">
-        <v>1</v>
-      </c>
-      <c r="K4" s="10">
-        <v>1</v>
-      </c>
-      <c r="L4" s="10">
-        <v>1</v>
-      </c>
-      <c r="M4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1">
-      <c r="A5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1">
-      <c r="A6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
-      <c r="A7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1">
-      <c r="A8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="3" customFormat="1">
-      <c r="A9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="4" customFormat="1">
+    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:14">
       <c r="A10" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 I1:M1 A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2 B3:C3 F3:M6 F10:F1048576 I10:M1048576 B7:M9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 J1:N1 A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 J2 B3:C3 F10:F1048576 I3:I6 I7:I9 F3:H6 B7:H9 J3:N6 J10:N1048576 J7:N9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/NFDataCfg/Excel/Comm/IObject.xlsx
+++ b/_Out/NFDataCfg/Excel/Comm/IObject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12510"/>
+    <workbookView windowHeight="23360"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>Id</t>
   </si>
@@ -103,9 +103,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -130,8 +130,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -145,23 +183,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,113 +279,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -301,25 +301,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,157 +469,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,30 +607,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,11 +628,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,15 +661,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,153 +688,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -880,9 +880,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -899,59 +896,62 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -1289,21 +1289,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="2" width="10.4666666666667" customWidth="1"/>
-    <col min="3" max="4" width="8.46666666666667" customWidth="1"/>
-    <col min="5" max="5" width="9.46666666666667" customWidth="1"/>
+    <col min="1" max="2" width="10.4711538461538" customWidth="1"/>
+    <col min="3" max="4" width="8.47115384615385" customWidth="1"/>
+    <col min="5" max="5" width="9.47115384615385" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:14">
@@ -1322,7 +1322,7 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1334,39 +1334,39 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:14">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1378,42 +1378,42 @@
       <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:14">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
         <v>1</v>
       </c>
       <c r="H3" s="3">
@@ -1422,83 +1422,83 @@
       <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="J3" s="10">
-        <v>1</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1</v>
-      </c>
-      <c r="L3" s="10">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
-        <v>1</v>
-      </c>
-      <c r="N3" s="10">
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:14">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>1</v>
-      </c>
-      <c r="K4" s="10">
-        <v>1</v>
-      </c>
-      <c r="L4" s="10">
-        <v>1</v>
-      </c>
-      <c r="M4" s="10">
-        <v>1</v>
-      </c>
-      <c r="N4" s="10">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:14">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
         <v>0</v>
       </c>
       <c r="G5" s="3">
@@ -1510,39 +1510,39 @@
       <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:14">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
         <v>0</v>
       </c>
       <c r="G6" s="3">
@@ -1554,7 +1554,7 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>1</v>
       </c>
       <c r="K6" s="3">
@@ -1570,8 +1570,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:14">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:14">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="3">
@@ -1614,8 +1614,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:14">
-      <c r="A8" s="11" t="s">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:14">
+      <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="3">
@@ -1658,8 +1658,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:14">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:14">
+      <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="3">
@@ -1702,25 +1702,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:14">
-      <c r="A10" s="12" t="s">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:14">
+      <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 J1:N1 A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 J2 B3:C3 F10:F1048576 I3:I6 I7:I9 F3:H6 B7:H9 J3:N6 J10:N1048576 J7:N9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 J2 B3:C3 J3 K3 L3:N3 J4 K4 L4:N4 F10:F1048576 I3:I6 I7:I9 F3:H6 B7:H9 J10:N1048576 J7:N9 J5:N6">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/Comm/IObject.xlsx
+++ b/_Out/NFDataCfg/Excel/Comm/IObject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>Id</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Disable</t>
+  </si>
+  <si>
+    <t>Connection</t>
   </si>
   <si>
     <t>Type</t>
@@ -102,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -129,8 +132,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +143,27 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,13 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -167,6 +185,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -174,91 +208,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +252,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -301,25 +304,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,31 +430,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,121 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +610,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +653,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -646,6 +673,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,30 +703,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -697,164 +711,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1291,12 +1294,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1304,9 +1307,10 @@
     <col min="1" max="2" width="10.4711538461538" customWidth="1"/>
     <col min="3" max="4" width="8.47115384615385" customWidth="1"/>
     <col min="5" max="5" width="9.47115384615385" customWidth="1"/>
+    <col min="15" max="15" width="12.0769230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1349,54 +1353,60 @@
       <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:14">
+    <row r="2" s="2" customFormat="1" spans="1:15">
       <c r="A2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="O2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:14">
+    <row r="3" s="2" customFormat="1" spans="1:15">
       <c r="A3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -1435,12 +1445,15 @@
         <v>1</v>
       </c>
       <c r="N3" s="9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:14">
+    <row r="4" s="2" customFormat="1" spans="1:15">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
@@ -1481,10 +1494,13 @@
       <c r="N4" s="9">
         <v>1</v>
       </c>
+      <c r="O4" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:14">
+    <row r="5" s="2" customFormat="1" spans="1:15">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="8">
         <v>0</v>
@@ -1525,10 +1541,13 @@
       <c r="N5" s="9">
         <v>0</v>
       </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:14">
+    <row r="6" s="2" customFormat="1" spans="1:15">
       <c r="A6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -1569,10 +1588,13 @@
       <c r="N6" s="3">
         <v>0</v>
       </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:14">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:15">
       <c r="A7" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -1613,10 +1635,13 @@
       <c r="N7" s="3">
         <v>0</v>
       </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:14">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:15">
       <c r="A8" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -1657,10 +1682,13 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:14">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:15">
       <c r="A9" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -1701,10 +1729,13 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:14">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:15">
       <c r="A10" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1716,11 +1747,12 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 J1:N1 A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 J2 B3:C3 J3 K3 L3:N3 J4 K4 L4:N4 F10:F1048576 I3:I6 I7:I9 F3:H6 B7:H9 J10:N1048576 J7:N9 J5:N6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 J1:N1 O1 A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 J2 B3:C3 J3 K3 L3:M3 N3 O3 J4 K4 L4:M4 N4 O4 F10:F1048576 I3:I6 I7:I9 O5:O6 O7:O9 O10:O1048576 F3:H6 B7:H9 J10:N1048576 J7:N9 J5:N6">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
